--- a/notas.xlsx
+++ b/notas.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Luis\informatica\web\4_Logica\algoritmo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Luis\informatica\web\4_Logica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F5BE61-A970-490B-9348-065A46D10914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64077C37-CD69-4E87-9DCF-7F6DA8ED8B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A35423C4-E337-4970-A96A-5054E63686D5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{A35423C4-E337-4970-A96A-5054E63686D5}"/>
   </bookViews>
   <sheets>
     <sheet name="números" sheetId="3" r:id="rId1"/>
     <sheet name="recursividad" sheetId="2" r:id="rId2"/>
     <sheet name="estructura de datos" sheetId="1" r:id="rId3"/>
-    <sheet name="pila árbol" sheetId="5" r:id="rId4"/>
+    <sheet name="árbol" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -106,9 +106,6 @@
   </si>
   <si>
     <t>8 - 3 - 1 - 6 - 4 - 7 -10 -14 - 13</t>
-  </si>
-  <si>
-    <t>Post-Orden: de abajo así arriba y de izquierda a derecha.</t>
   </si>
   <si>
     <t>1 - 4 - 7 - 6 - 3 - 13 - 14 - 10 - 8</t>
@@ -246,7 +243,10 @@
     <t>13 Fx(cb, arr)</t>
   </si>
   <si>
-    <t>Pre-Orden: recorro el nodo que estoy y luego de izquierda a derecha.</t>
+    <t>Pre-Order: recorro el nodo que estoy y luego de izquierda a derecha.</t>
+  </si>
+  <si>
+    <t>Post-Order: de abajo así arriba y de izquierda a derecha.</t>
   </si>
 </sst>
 </file>
@@ -411,13 +411,13 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -16246,7 +16246,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BF145C4-A5E0-4673-AF4F-5DEB14196521}">
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -16368,8 +16368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47CA85B3-8CD6-4035-92C3-B747947EE782}">
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView showGridLines="0" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16428,7 +16428,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -16443,7 +16443,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B65" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -16453,22 +16453,22 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B68" s="5" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B69" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B73" s="5" t="s">
-        <v>28</v>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B72" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -16492,8 +16492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF031DFD-CD3F-4691-9A53-B4601A9C03CD}">
   <dimension ref="B1:BS25"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -16506,7 +16506,7 @@
   <sheetData>
     <row r="1" spans="2:71" x14ac:dyDescent="0.3">
       <c r="B1" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="2:71" x14ac:dyDescent="0.3">
@@ -16521,14 +16521,14 @@
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
       <c r="L3" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
       <c r="Q3" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R3" s="11"/>
       <c r="S3" s="11"/>
@@ -16541,7 +16541,7 @@
       <c r="Z3" s="11"/>
       <c r="AA3" s="11"/>
       <c r="AB3" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AC3" s="11"/>
       <c r="AD3" s="11"/>
@@ -16554,7 +16554,7 @@
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
@@ -16562,26 +16562,26 @@
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
       <c r="K4" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N4" s="11"/>
       <c r="O4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="P4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="P4" s="11" t="s">
-        <v>35</v>
-      </c>
       <c r="Q4" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R4" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S4" s="11"/>
       <c r="T4" s="11"/>
@@ -16592,16 +16592,16 @@
       <c r="Y4" s="11"/>
       <c r="Z4" s="11"/>
       <c r="AA4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD4" s="12" t="s">
         <v>36</v>
-      </c>
-      <c r="AB4" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC4" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD4" s="12" t="s">
-        <v>37</v>
       </c>
       <c r="AE4" s="11"/>
       <c r="AF4" s="11"/>
@@ -16611,74 +16611,74 @@
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I5" s="11"/>
       <c r="J5" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q5" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R5" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S5" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T5" s="11"/>
       <c r="U5" s="11"/>
       <c r="V5" s="11"/>
       <c r="W5" s="11"/>
       <c r="X5" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Y5" s="11"/>
       <c r="Z5" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AA5" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB5" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AC5" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AD5" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AE5" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AF5" s="11"/>
       <c r="AG5" s="11"/>
@@ -16686,1579 +16686,1980 @@
     <row r="6" spans="2:71" x14ac:dyDescent="0.3">
       <c r="B6" s="11"/>
       <c r="C6" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O6" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q6" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R6" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S6" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T6" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U6" s="11"/>
       <c r="V6" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W6" s="11"/>
       <c r="X6" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Y6" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Z6" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AA6" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AB6" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC6" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AD6" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AE6" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AF6" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AG6" s="11"/>
     </row>
     <row r="7" spans="2:71" x14ac:dyDescent="0.3">
       <c r="B7" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M7" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O7" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P7" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q7" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R7" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S7" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T7" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U7" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V7" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W7" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X7" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y7" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z7" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA7" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB7" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC7" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD7" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE7" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AF7" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AG7" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="2:71" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="15"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="15"/>
-      <c r="Z13" s="15"/>
-      <c r="AA13" s="15"/>
-      <c r="AB13" s="15"/>
-      <c r="AC13" s="15"/>
-      <c r="AD13" s="15"/>
-      <c r="AE13" s="15"/>
-      <c r="AF13" s="15"/>
-      <c r="AG13" s="15"/>
-      <c r="AH13" s="15"/>
-      <c r="AI13" s="15"/>
-      <c r="AJ13" s="15"/>
-      <c r="AK13" s="15"/>
-      <c r="AL13" s="15"/>
-      <c r="AM13" s="15"/>
-      <c r="AN13" s="15"/>
-      <c r="AO13" s="15"/>
-      <c r="AP13" s="15"/>
-      <c r="AQ13" s="15"/>
-      <c r="AR13" s="15"/>
-      <c r="AS13" s="15"/>
-      <c r="AT13" s="15"/>
-      <c r="AU13" s="15"/>
-      <c r="AV13" s="15"/>
-      <c r="AW13" s="15"/>
-      <c r="AX13" s="15"/>
-      <c r="AY13" s="15"/>
-      <c r="AZ13" s="15"/>
-      <c r="BA13" s="15"/>
-      <c r="BB13" s="15"/>
-      <c r="BC13" s="15"/>
-      <c r="BD13" s="15"/>
-      <c r="BE13" s="15"/>
-      <c r="BF13" s="15"/>
-      <c r="BG13" s="15"/>
-      <c r="BH13" s="15"/>
-      <c r="BI13" s="15"/>
-      <c r="BJ13" s="15"/>
-      <c r="BK13" s="15"/>
-      <c r="BL13" s="15"/>
-      <c r="BM13" s="15"/>
-      <c r="BN13" s="15"/>
-      <c r="BO13" s="15"/>
-      <c r="BP13" s="15"/>
-      <c r="BQ13" s="15"/>
-      <c r="BR13" s="15"/>
-      <c r="BS13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="16"/>
+      <c r="Y13" s="16"/>
+      <c r="Z13" s="16"/>
+      <c r="AA13" s="16"/>
+      <c r="AB13" s="16"/>
+      <c r="AC13" s="16"/>
+      <c r="AD13" s="16"/>
+      <c r="AE13" s="16"/>
+      <c r="AF13" s="16"/>
+      <c r="AG13" s="16"/>
+      <c r="AH13" s="16"/>
+      <c r="AI13" s="16"/>
+      <c r="AJ13" s="16"/>
+      <c r="AK13" s="16"/>
+      <c r="AL13" s="16"/>
+      <c r="AM13" s="16"/>
+      <c r="AN13" s="16"/>
+      <c r="AO13" s="16"/>
+      <c r="AP13" s="16"/>
+      <c r="AQ13" s="16"/>
+      <c r="AR13" s="16"/>
+      <c r="AS13" s="16"/>
+      <c r="AT13" s="16"/>
+      <c r="AU13" s="16"/>
+      <c r="AV13" s="16"/>
+      <c r="AW13" s="16"/>
+      <c r="AX13" s="16"/>
+      <c r="AY13" s="16"/>
+      <c r="AZ13" s="16"/>
+      <c r="BA13" s="16"/>
+      <c r="BB13" s="16"/>
+      <c r="BC13" s="16"/>
+      <c r="BD13" s="16"/>
+      <c r="BE13" s="16"/>
+      <c r="BF13" s="16"/>
+      <c r="BG13" s="16"/>
+      <c r="BH13" s="16"/>
+      <c r="BI13" s="16"/>
+      <c r="BJ13" s="16"/>
+      <c r="BK13" s="16"/>
+      <c r="BL13" s="16"/>
+      <c r="BM13" s="16"/>
+      <c r="BN13" s="16"/>
+      <c r="BO13" s="16"/>
+      <c r="BP13" s="16"/>
+      <c r="BQ13" s="16"/>
+      <c r="BR13" s="16"/>
+      <c r="BS13" s="16"/>
     </row>
     <row r="14" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="15"/>
-      <c r="W14" s="15"/>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="15"/>
-      <c r="Z14" s="15"/>
-      <c r="AA14" s="15"/>
-      <c r="AB14" s="15"/>
-      <c r="AC14" s="15"/>
-      <c r="AD14" s="15"/>
-      <c r="AE14" s="15"/>
-      <c r="AF14" s="15"/>
-      <c r="AG14" s="15"/>
-      <c r="AH14" s="15"/>
-      <c r="AI14" s="15"/>
-      <c r="AJ14" s="15"/>
-      <c r="AK14" s="15"/>
-      <c r="AL14" s="15"/>
-      <c r="AM14" s="15"/>
-      <c r="AN14" s="15"/>
-      <c r="AO14" s="15"/>
-      <c r="AP14" s="15"/>
-      <c r="AQ14" s="15"/>
-      <c r="AR14" s="15"/>
-      <c r="AS14" s="15"/>
-      <c r="AT14" s="15"/>
-      <c r="AU14" s="15"/>
-      <c r="AV14" s="15"/>
-      <c r="AW14" s="15"/>
-      <c r="AX14" s="15"/>
-      <c r="AY14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="16"/>
+      <c r="X14" s="16"/>
+      <c r="Y14" s="16"/>
+      <c r="Z14" s="16"/>
+      <c r="AA14" s="16"/>
+      <c r="AB14" s="16"/>
+      <c r="AC14" s="16"/>
+      <c r="AD14" s="16"/>
+      <c r="AE14" s="16"/>
+      <c r="AF14" s="16"/>
+      <c r="AG14" s="16"/>
+      <c r="AH14" s="16"/>
+      <c r="AI14" s="16"/>
+      <c r="AJ14" s="16"/>
+      <c r="AK14" s="16"/>
+      <c r="AL14" s="16"/>
+      <c r="AM14" s="16"/>
+      <c r="AN14" s="16"/>
+      <c r="AO14" s="16"/>
+      <c r="AP14" s="16"/>
+      <c r="AQ14" s="16"/>
+      <c r="AR14" s="16"/>
+      <c r="AS14" s="16"/>
+      <c r="AT14" s="16"/>
+      <c r="AU14" s="16"/>
+      <c r="AV14" s="16"/>
+      <c r="AW14" s="16"/>
+      <c r="AX14" s="16"/>
+      <c r="AY14" s="16"/>
       <c r="AZ14" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BA14" s="18"/>
-      <c r="BB14" s="15"/>
-      <c r="BC14" s="15"/>
-      <c r="BD14" s="15"/>
-      <c r="BE14" s="15"/>
-      <c r="BF14" s="15"/>
-      <c r="BG14" s="15"/>
-      <c r="BH14" s="15"/>
-      <c r="BI14" s="15"/>
-      <c r="BJ14" s="15"/>
-      <c r="BK14" s="15"/>
-      <c r="BL14" s="15"/>
-      <c r="BM14" s="15"/>
-      <c r="BN14" s="15"/>
-      <c r="BO14" s="15"/>
-      <c r="BP14" s="15"/>
-      <c r="BQ14" s="15"/>
-      <c r="BR14" s="15"/>
-      <c r="BS14" s="15"/>
+      <c r="BB14" s="16"/>
+      <c r="BC14" s="16"/>
+      <c r="BD14" s="16"/>
+      <c r="BE14" s="16"/>
+      <c r="BF14" s="16"/>
+      <c r="BG14" s="16"/>
+      <c r="BH14" s="16"/>
+      <c r="BI14" s="16"/>
+      <c r="BJ14" s="16"/>
+      <c r="BK14" s="16"/>
+      <c r="BL14" s="16"/>
+      <c r="BM14" s="16"/>
+      <c r="BN14" s="16"/>
+      <c r="BO14" s="16"/>
+      <c r="BP14" s="16"/>
+      <c r="BQ14" s="16"/>
+      <c r="BR14" s="16"/>
+      <c r="BS14" s="16"/>
     </row>
     <row r="15" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="15"/>
-      <c r="V15" s="15"/>
-      <c r="W15" s="15"/>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="15"/>
-      <c r="Z15" s="15"/>
-      <c r="AA15" s="15"/>
-      <c r="AB15" s="15"/>
-      <c r="AC15" s="15"/>
-      <c r="AD15" s="15"/>
-      <c r="AE15" s="15"/>
-      <c r="AF15" s="15"/>
-      <c r="AG15" s="15"/>
-      <c r="AH15" s="15"/>
-      <c r="AI15" s="15"/>
-      <c r="AJ15" s="15"/>
-      <c r="AK15" s="15"/>
-      <c r="AL15" s="15"/>
-      <c r="AM15" s="15"/>
-      <c r="AN15" s="15"/>
-      <c r="AO15" s="15"/>
-      <c r="AP15" s="15"/>
-      <c r="AQ15" s="15"/>
-      <c r="AR15" s="15"/>
-      <c r="AS15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="16"/>
+      <c r="W15" s="16"/>
+      <c r="X15" s="16"/>
+      <c r="Y15" s="16"/>
+      <c r="Z15" s="16"/>
+      <c r="AA15" s="16"/>
+      <c r="AB15" s="16"/>
+      <c r="AC15" s="16"/>
+      <c r="AD15" s="16"/>
+      <c r="AE15" s="16"/>
+      <c r="AF15" s="16"/>
+      <c r="AG15" s="16"/>
+      <c r="AH15" s="16"/>
+      <c r="AI15" s="16"/>
+      <c r="AJ15" s="16"/>
+      <c r="AK15" s="16"/>
+      <c r="AL15" s="16"/>
+      <c r="AM15" s="16"/>
+      <c r="AN15" s="16"/>
+      <c r="AO15" s="16"/>
+      <c r="AP15" s="16"/>
+      <c r="AQ15" s="16"/>
+      <c r="AR15" s="16"/>
+      <c r="AS15" s="16"/>
       <c r="AT15" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AU15" s="18"/>
-      <c r="AV15" s="15"/>
-      <c r="AW15" s="15"/>
-      <c r="AX15" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="AY15" s="15"/>
-      <c r="AZ15" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="BA15" s="15"/>
-      <c r="BB15" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="BC15" s="15"/>
-      <c r="BD15" s="15"/>
-      <c r="BE15" s="15"/>
-      <c r="BF15" s="15"/>
-      <c r="BG15" s="15"/>
-      <c r="BH15" s="15"/>
-      <c r="BI15" s="15"/>
-      <c r="BJ15" s="15"/>
-      <c r="BK15" s="15"/>
-      <c r="BL15" s="15"/>
-      <c r="BM15" s="15"/>
-      <c r="BN15" s="15"/>
-      <c r="BO15" s="15"/>
-      <c r="BP15" s="15"/>
-      <c r="BQ15" s="15"/>
-      <c r="BR15" s="15"/>
-      <c r="BS15" s="15"/>
+      <c r="AV15" s="16"/>
+      <c r="AW15" s="16"/>
+      <c r="AX15" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY15" s="16"/>
+      <c r="AZ15" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA15" s="16"/>
+      <c r="BB15" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="BC15" s="16"/>
+      <c r="BD15" s="16"/>
+      <c r="BE15" s="16"/>
+      <c r="BF15" s="16"/>
+      <c r="BG15" s="16"/>
+      <c r="BH15" s="16"/>
+      <c r="BI15" s="16"/>
+      <c r="BJ15" s="16"/>
+      <c r="BK15" s="16"/>
+      <c r="BL15" s="16"/>
+      <c r="BM15" s="16"/>
+      <c r="BN15" s="16"/>
+      <c r="BO15" s="16"/>
+      <c r="BP15" s="16"/>
+      <c r="BQ15" s="16"/>
+      <c r="BR15" s="16"/>
+      <c r="BS15" s="16"/>
     </row>
     <row r="16" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="15"/>
-      <c r="U16" s="15"/>
-      <c r="V16" s="15"/>
-      <c r="W16" s="15"/>
-      <c r="X16" s="15"/>
-      <c r="Y16" s="15"/>
-      <c r="Z16" s="15"/>
-      <c r="AA16" s="15"/>
-      <c r="AB16" s="15"/>
-      <c r="AC16" s="15"/>
-      <c r="AD16" s="15"/>
-      <c r="AE16" s="15"/>
-      <c r="AF16" s="15"/>
-      <c r="AG16" s="15"/>
-      <c r="AH16" s="15"/>
-      <c r="AI16" s="15"/>
-      <c r="AJ16" s="15"/>
-      <c r="AK16" s="15"/>
-      <c r="AL16" s="15"/>
-      <c r="AM16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="16"/>
+      <c r="X16" s="16"/>
+      <c r="Y16" s="16"/>
+      <c r="Z16" s="16"/>
+      <c r="AA16" s="16"/>
+      <c r="AB16" s="16"/>
+      <c r="AC16" s="16"/>
+      <c r="AD16" s="16"/>
+      <c r="AE16" s="16"/>
+      <c r="AF16" s="16"/>
+      <c r="AG16" s="16"/>
+      <c r="AH16" s="16"/>
+      <c r="AI16" s="16"/>
+      <c r="AJ16" s="16"/>
+      <c r="AK16" s="16"/>
+      <c r="AL16" s="16"/>
+      <c r="AM16" s="16"/>
       <c r="AN16" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO16" s="18"/>
-      <c r="AP16" s="15"/>
-      <c r="AQ16" s="15"/>
-      <c r="AR16" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AS16" s="15"/>
-      <c r="AT16" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AU16" s="15"/>
-      <c r="AV16" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AW16" s="15"/>
-      <c r="AX16" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AY16" s="15"/>
-      <c r="AZ16" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="BA16" s="15"/>
-      <c r="BB16" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="BC16" s="15"/>
-      <c r="BD16" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="BE16" s="15"/>
-      <c r="BF16" s="15"/>
-      <c r="BG16" s="15"/>
-      <c r="BH16" s="15"/>
-      <c r="BI16" s="15"/>
-      <c r="BJ16" s="15"/>
-      <c r="BK16" s="15"/>
-      <c r="BL16" s="15"/>
-      <c r="BM16" s="15"/>
-      <c r="BN16" s="15"/>
-      <c r="BO16" s="15"/>
-      <c r="BP16" s="15"/>
-      <c r="BQ16" s="15"/>
-      <c r="BR16" s="15"/>
-      <c r="BS16" s="15"/>
+      <c r="AP16" s="16"/>
+      <c r="AQ16" s="16"/>
+      <c r="AR16" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AS16" s="16"/>
+      <c r="AT16" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU16" s="16"/>
+      <c r="AV16" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW16" s="16"/>
+      <c r="AX16" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY16" s="16"/>
+      <c r="AZ16" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="BA16" s="16"/>
+      <c r="BB16" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="BC16" s="16"/>
+      <c r="BD16" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="BE16" s="16"/>
+      <c r="BF16" s="16"/>
+      <c r="BG16" s="16"/>
+      <c r="BH16" s="16"/>
+      <c r="BI16" s="16"/>
+      <c r="BJ16" s="16"/>
+      <c r="BK16" s="16"/>
+      <c r="BL16" s="16"/>
+      <c r="BM16" s="16"/>
+      <c r="BN16" s="16"/>
+      <c r="BO16" s="16"/>
+      <c r="BP16" s="16"/>
+      <c r="BQ16" s="16"/>
+      <c r="BR16" s="16"/>
+      <c r="BS16" s="16"/>
     </row>
     <row r="17" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15"/>
-      <c r="U17" s="15"/>
-      <c r="V17" s="15"/>
-      <c r="W17" s="15"/>
-      <c r="X17" s="15"/>
-      <c r="Y17" s="15"/>
-      <c r="Z17" s="15"/>
-      <c r="AA17" s="15"/>
-      <c r="AB17" s="15"/>
-      <c r="AC17" s="15"/>
-      <c r="AD17" s="15"/>
-      <c r="AE17" s="15"/>
-      <c r="AF17" s="15"/>
-      <c r="AG17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="16"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="16"/>
+      <c r="Y17" s="16"/>
+      <c r="Z17" s="16"/>
+      <c r="AA17" s="16"/>
+      <c r="AB17" s="16"/>
+      <c r="AC17" s="16"/>
+      <c r="AD17" s="16"/>
+      <c r="AE17" s="16"/>
+      <c r="AF17" s="16"/>
+      <c r="AG17" s="16"/>
       <c r="AH17" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AI17" s="18"/>
-      <c r="AJ17" s="15"/>
-      <c r="AK17" s="15"/>
-      <c r="AL17" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="AM17" s="15"/>
-      <c r="AN17" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO17" s="15"/>
-      <c r="AP17" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="AQ17" s="15"/>
-      <c r="AR17" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="AS17" s="15"/>
-      <c r="AT17" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU17" s="15"/>
-      <c r="AV17" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW17" s="15"/>
-      <c r="AX17" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="AY17" s="15"/>
-      <c r="AZ17" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="BA17" s="15"/>
-      <c r="BB17" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="BC17" s="15"/>
-      <c r="BD17" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="BE17" s="15"/>
-      <c r="BF17" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="BG17" s="15"/>
-      <c r="BH17" s="15"/>
-      <c r="BI17" s="15"/>
-      <c r="BJ17" s="15"/>
-      <c r="BK17" s="15"/>
-      <c r="BL17" s="15"/>
-      <c r="BM17" s="15"/>
-      <c r="BN17" s="15"/>
-      <c r="BO17" s="15"/>
-      <c r="BP17" s="15"/>
-      <c r="BQ17" s="15"/>
-      <c r="BR17" s="15"/>
-      <c r="BS17" s="15"/>
+      <c r="AJ17" s="16"/>
+      <c r="AK17" s="16"/>
+      <c r="AL17" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM17" s="16"/>
+      <c r="AN17" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO17" s="16"/>
+      <c r="AP17" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="AQ17" s="16"/>
+      <c r="AR17" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS17" s="16"/>
+      <c r="AT17" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU17" s="16"/>
+      <c r="AV17" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="AW17" s="16"/>
+      <c r="AX17" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="AY17" s="16"/>
+      <c r="AZ17" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="BA17" s="16"/>
+      <c r="BB17" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="BC17" s="16"/>
+      <c r="BD17" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="BE17" s="16"/>
+      <c r="BF17" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="BG17" s="16"/>
+      <c r="BH17" s="16"/>
+      <c r="BI17" s="16"/>
+      <c r="BJ17" s="16"/>
+      <c r="BK17" s="16"/>
+      <c r="BL17" s="16"/>
+      <c r="BM17" s="16"/>
+      <c r="BN17" s="16"/>
+      <c r="BO17" s="16"/>
+      <c r="BP17" s="16"/>
+      <c r="BQ17" s="16"/>
+      <c r="BR17" s="16"/>
+      <c r="BS17" s="16"/>
     </row>
     <row r="18" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="15"/>
-      <c r="U18" s="15"/>
-      <c r="V18" s="15"/>
-      <c r="W18" s="15"/>
-      <c r="X18" s="15"/>
-      <c r="Y18" s="15"/>
-      <c r="Z18" s="15"/>
-      <c r="AA18" s="15"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="16"/>
+      <c r="X18" s="16"/>
+      <c r="Y18" s="16"/>
+      <c r="Z18" s="16"/>
+      <c r="AA18" s="16"/>
       <c r="AB18" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC18" s="18"/>
-      <c r="AD18" s="15"/>
-      <c r="AE18" s="15"/>
-      <c r="AF18" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG18" s="15"/>
-      <c r="AH18" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="AI18" s="15"/>
-      <c r="AJ18" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="AK18" s="15"/>
-      <c r="AL18" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="AM18" s="15"/>
-      <c r="AN18" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="AO18" s="15"/>
-      <c r="AP18" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="AQ18" s="15"/>
-      <c r="AR18" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="AS18" s="15"/>
-      <c r="AT18" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="AU18" s="15"/>
-      <c r="AV18" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="AW18" s="15"/>
-      <c r="AX18" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="AY18" s="15"/>
-      <c r="AZ18" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="BA18" s="15"/>
-      <c r="BB18" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="BC18" s="15"/>
-      <c r="BD18" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="BE18" s="15"/>
-      <c r="BF18" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="BG18" s="15"/>
-      <c r="BH18" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI18" s="15"/>
-      <c r="BJ18" s="15"/>
-      <c r="BK18" s="15"/>
-      <c r="BL18" s="15"/>
-      <c r="BM18" s="15"/>
-      <c r="BN18" s="15"/>
-      <c r="BO18" s="15"/>
-      <c r="BP18" s="15"/>
-      <c r="BQ18" s="15"/>
-      <c r="BR18" s="15"/>
-      <c r="BS18" s="15"/>
+      <c r="AD18" s="16"/>
+      <c r="AE18" s="16"/>
+      <c r="AF18" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG18" s="16"/>
+      <c r="AH18" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI18" s="16"/>
+      <c r="AJ18" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK18" s="16"/>
+      <c r="AL18" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM18" s="16"/>
+      <c r="AN18" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO18" s="16"/>
+      <c r="AP18" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ18" s="16"/>
+      <c r="AR18" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="AS18" s="16"/>
+      <c r="AT18" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="AU18" s="16"/>
+      <c r="AV18" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="AW18" s="16"/>
+      <c r="AX18" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY18" s="16"/>
+      <c r="AZ18" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="BA18" s="16"/>
+      <c r="BB18" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="BC18" s="16"/>
+      <c r="BD18" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="BE18" s="16"/>
+      <c r="BF18" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG18" s="16"/>
+      <c r="BH18" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="BI18" s="16"/>
+      <c r="BJ18" s="16"/>
+      <c r="BK18" s="16"/>
+      <c r="BL18" s="16"/>
+      <c r="BM18" s="16"/>
+      <c r="BN18" s="16"/>
+      <c r="BO18" s="16"/>
+      <c r="BP18" s="16"/>
+      <c r="BQ18" s="16"/>
+      <c r="BR18" s="16"/>
+      <c r="BS18" s="16"/>
     </row>
     <row r="19" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="15"/>
-      <c r="T19" s="15"/>
-      <c r="U19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
       <c r="V19" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W19" s="18"/>
-      <c r="X19" s="15"/>
-      <c r="Y19" s="15"/>
-      <c r="Z19" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA19" s="15"/>
-      <c r="AB19" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC19" s="15"/>
-      <c r="AD19" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE19" s="15"/>
-      <c r="AF19" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG19" s="15"/>
-      <c r="AH19" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI19" s="15"/>
-      <c r="AJ19" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK19" s="15"/>
-      <c r="AL19" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM19" s="15"/>
-      <c r="AN19" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="AO19" s="15"/>
-      <c r="AP19" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="AQ19" s="15"/>
-      <c r="AR19" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="AS19" s="15"/>
-      <c r="AT19" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="AU19" s="15"/>
-      <c r="AV19" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="AW19" s="15"/>
-      <c r="AX19" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="AY19" s="15"/>
-      <c r="AZ19" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="BA19" s="15"/>
-      <c r="BB19" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="BC19" s="15"/>
-      <c r="BD19" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="BE19" s="15"/>
-      <c r="BF19" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG19" s="15"/>
-      <c r="BH19" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="BI19" s="15"/>
-      <c r="BJ19" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="BK19" s="15"/>
-      <c r="BL19" s="15"/>
-      <c r="BM19" s="15"/>
-      <c r="BN19" s="15"/>
-      <c r="BO19" s="15"/>
-      <c r="BP19" s="15"/>
-      <c r="BQ19" s="15"/>
-      <c r="BR19" s="15"/>
-      <c r="BS19" s="15"/>
+      <c r="X19" s="16"/>
+      <c r="Y19" s="16"/>
+      <c r="Z19" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA19" s="16"/>
+      <c r="AB19" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC19" s="16"/>
+      <c r="AD19" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE19" s="16"/>
+      <c r="AF19" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG19" s="16"/>
+      <c r="AH19" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI19" s="16"/>
+      <c r="AJ19" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK19" s="16"/>
+      <c r="AL19" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM19" s="16"/>
+      <c r="AN19" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO19" s="16"/>
+      <c r="AP19" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ19" s="16"/>
+      <c r="AR19" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS19" s="16"/>
+      <c r="AT19" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="AU19" s="16"/>
+      <c r="AV19" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="AW19" s="16"/>
+      <c r="AX19" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="AY19" s="16"/>
+      <c r="AZ19" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="BA19" s="16"/>
+      <c r="BB19" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="BC19" s="16"/>
+      <c r="BD19" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="BE19" s="16"/>
+      <c r="BF19" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="BG19" s="16"/>
+      <c r="BH19" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="BI19" s="16"/>
+      <c r="BJ19" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="BK19" s="16"/>
+      <c r="BL19" s="16"/>
+      <c r="BM19" s="16"/>
+      <c r="BN19" s="16"/>
+      <c r="BO19" s="16"/>
+      <c r="BP19" s="16"/>
+      <c r="BQ19" s="16"/>
+      <c r="BR19" s="16"/>
+      <c r="BS19" s="16"/>
     </row>
     <row r="20" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
       <c r="P20" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q20" s="18"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="U20" s="15"/>
-      <c r="V20" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="W20" s="15"/>
-      <c r="X20" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y20" s="15"/>
-      <c r="Z20" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA20" s="15"/>
-      <c r="AB20" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC20" s="15"/>
-      <c r="AD20" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE20" s="15"/>
-      <c r="AF20" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG20" s="15"/>
-      <c r="AH20" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI20" s="15"/>
-      <c r="AJ20" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK20" s="15"/>
-      <c r="AL20" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="AM20" s="15"/>
-      <c r="AN20" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="AO20" s="15"/>
-      <c r="AP20" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="AQ20" s="15"/>
-      <c r="AR20" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS20" s="15"/>
-      <c r="AT20" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="AU20" s="15"/>
-      <c r="AV20" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="AW20" s="15"/>
-      <c r="AX20" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="AY20" s="15"/>
-      <c r="AZ20" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="BA20" s="15"/>
-      <c r="BB20" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="BC20" s="15"/>
-      <c r="BD20" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="BE20" s="15"/>
-      <c r="BF20" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="BG20" s="15"/>
-      <c r="BH20" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="BI20" s="15"/>
-      <c r="BJ20" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="BK20" s="15"/>
-      <c r="BL20" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM20" s="15"/>
-      <c r="BN20" s="15"/>
-      <c r="BO20" s="15"/>
-      <c r="BP20" s="15"/>
-      <c r="BQ20" s="15"/>
-      <c r="BR20" s="15"/>
-      <c r="BS20" s="15"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="U20" s="16"/>
+      <c r="V20" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="W20" s="16"/>
+      <c r="X20" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y20" s="16"/>
+      <c r="Z20" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA20" s="16"/>
+      <c r="AB20" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC20" s="16"/>
+      <c r="AD20" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE20" s="16"/>
+      <c r="AF20" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG20" s="16"/>
+      <c r="AH20" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI20" s="16"/>
+      <c r="AJ20" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK20" s="16"/>
+      <c r="AL20" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM20" s="16"/>
+      <c r="AN20" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO20" s="16"/>
+      <c r="AP20" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AQ20" s="16"/>
+      <c r="AR20" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AS20" s="16"/>
+      <c r="AT20" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU20" s="16"/>
+      <c r="AV20" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW20" s="16"/>
+      <c r="AX20" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AY20" s="16"/>
+      <c r="AZ20" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="BA20" s="16"/>
+      <c r="BB20" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="BC20" s="16"/>
+      <c r="BD20" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="BE20" s="16"/>
+      <c r="BF20" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="BG20" s="16"/>
+      <c r="BH20" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="BI20" s="16"/>
+      <c r="BJ20" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="BK20" s="16"/>
+      <c r="BL20" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="BM20" s="16"/>
+      <c r="BN20" s="16"/>
+      <c r="BO20" s="16"/>
+      <c r="BP20" s="16"/>
+      <c r="BQ20" s="16"/>
+      <c r="BR20" s="16"/>
+      <c r="BS20" s="16"/>
     </row>
     <row r="21" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
       <c r="J21" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K21" s="18"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="S21" s="15"/>
-      <c r="T21" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="U21" s="15"/>
-      <c r="V21" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="W21" s="15"/>
-      <c r="X21" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y21" s="15"/>
-      <c r="Z21" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA21" s="15"/>
-      <c r="AB21" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC21" s="15"/>
-      <c r="AD21" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE21" s="15"/>
-      <c r="AF21" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG21" s="15"/>
-      <c r="AH21" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI21" s="15"/>
-      <c r="AJ21" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="AK21" s="15"/>
-      <c r="AL21" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM21" s="15"/>
-      <c r="AN21" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="AO21" s="15"/>
-      <c r="AP21" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="AQ21" s="15"/>
-      <c r="AR21" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="AS21" s="15"/>
-      <c r="AT21" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="AU21" s="15"/>
-      <c r="AV21" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="AW21" s="15"/>
-      <c r="AX21" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="AY21" s="15"/>
-      <c r="AZ21" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="BA21" s="15"/>
-      <c r="BB21" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="BC21" s="15"/>
-      <c r="BD21" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="BE21" s="15"/>
-      <c r="BF21" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="BG21" s="15"/>
-      <c r="BH21" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="BI21" s="15"/>
-      <c r="BJ21" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="BK21" s="15"/>
-      <c r="BL21" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="BM21" s="15"/>
-      <c r="BN21" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="BO21" s="15"/>
-      <c r="BP21" s="15"/>
-      <c r="BQ21" s="15"/>
-      <c r="BR21" s="15"/>
-      <c r="BS21" s="15"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="S21" s="16"/>
+      <c r="T21" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="U21" s="16"/>
+      <c r="V21" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="W21" s="16"/>
+      <c r="X21" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y21" s="16"/>
+      <c r="Z21" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA21" s="16"/>
+      <c r="AB21" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC21" s="16"/>
+      <c r="AD21" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE21" s="16"/>
+      <c r="AF21" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG21" s="16"/>
+      <c r="AH21" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI21" s="16"/>
+      <c r="AJ21" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK21" s="16"/>
+      <c r="AL21" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM21" s="16"/>
+      <c r="AN21" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO21" s="16"/>
+      <c r="AP21" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="AQ21" s="16"/>
+      <c r="AR21" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS21" s="16"/>
+      <c r="AT21" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU21" s="16"/>
+      <c r="AV21" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="AW21" s="16"/>
+      <c r="AX21" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="AY21" s="16"/>
+      <c r="AZ21" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="BA21" s="16"/>
+      <c r="BB21" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="BC21" s="16"/>
+      <c r="BD21" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="BE21" s="16"/>
+      <c r="BF21" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="BG21" s="16"/>
+      <c r="BH21" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="BI21" s="16"/>
+      <c r="BJ21" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="BK21" s="16"/>
+      <c r="BL21" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="BM21" s="16"/>
+      <c r="BN21" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO21" s="16"/>
+      <c r="BP21" s="16"/>
+      <c r="BQ21" s="16"/>
+      <c r="BR21" s="16"/>
+      <c r="BS21" s="16"/>
     </row>
     <row r="22" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
       <c r="D22" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E22" s="18"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="S22" s="15"/>
-      <c r="T22" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="U22" s="15"/>
-      <c r="V22" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="W22" s="15"/>
-      <c r="X22" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y22" s="15"/>
-      <c r="Z22" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA22" s="15"/>
-      <c r="AB22" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC22" s="15"/>
-      <c r="AD22" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE22" s="15"/>
-      <c r="AF22" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG22" s="15"/>
-      <c r="AH22" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI22" s="15"/>
-      <c r="AJ22" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK22" s="15"/>
-      <c r="AL22" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="AM22" s="15"/>
-      <c r="AN22" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="AO22" s="15"/>
-      <c r="AP22" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="AQ22" s="15"/>
-      <c r="AR22" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="AS22" s="15"/>
-      <c r="AT22" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="AU22" s="15"/>
-      <c r="AV22" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="AW22" s="15"/>
-      <c r="AX22" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="AY22" s="15"/>
-      <c r="AZ22" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="BA22" s="15"/>
-      <c r="BB22" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="BC22" s="15"/>
-      <c r="BD22" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="BE22" s="15"/>
-      <c r="BF22" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="BG22" s="15"/>
-      <c r="BH22" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="BI22" s="15"/>
-      <c r="BJ22" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="BK22" s="15"/>
-      <c r="BL22" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="BM22" s="15"/>
-      <c r="BN22" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="BO22" s="15"/>
-      <c r="BP22" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="BQ22" s="15"/>
-      <c r="BR22" s="15"/>
-      <c r="BS22" s="15"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="S22" s="16"/>
+      <c r="T22" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="U22" s="16"/>
+      <c r="V22" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W22" s="16"/>
+      <c r="X22" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y22" s="16"/>
+      <c r="Z22" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA22" s="16"/>
+      <c r="AB22" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC22" s="16"/>
+      <c r="AD22" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE22" s="16"/>
+      <c r="AF22" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG22" s="16"/>
+      <c r="AH22" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI22" s="16"/>
+      <c r="AJ22" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK22" s="16"/>
+      <c r="AL22" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM22" s="16"/>
+      <c r="AN22" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO22" s="16"/>
+      <c r="AP22" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AQ22" s="16"/>
+      <c r="AR22" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AS22" s="16"/>
+      <c r="AT22" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AU22" s="16"/>
+      <c r="AV22" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AW22" s="16"/>
+      <c r="AX22" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AY22" s="16"/>
+      <c r="AZ22" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="BA22" s="16"/>
+      <c r="BB22" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC22" s="16"/>
+      <c r="BD22" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="BE22" s="16"/>
+      <c r="BF22" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="BG22" s="16"/>
+      <c r="BH22" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="BI22" s="16"/>
+      <c r="BJ22" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="BK22" s="16"/>
+      <c r="BL22" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM22" s="16"/>
+      <c r="BN22" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="BO22" s="16"/>
+      <c r="BP22" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="BQ22" s="16"/>
+      <c r="BR22" s="16"/>
+      <c r="BS22" s="16"/>
     </row>
     <row r="23" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B23" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="S23" s="16"/>
-      <c r="T23" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="U23" s="16"/>
-      <c r="V23" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="W23" s="16"/>
-      <c r="X23" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y23" s="16"/>
-      <c r="Z23" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA23" s="16"/>
-      <c r="AB23" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC23" s="16"/>
-      <c r="AD23" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE23" s="16"/>
-      <c r="AF23" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG23" s="16"/>
-      <c r="AH23" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI23" s="16"/>
-      <c r="AJ23" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="AK23" s="16"/>
-      <c r="AL23" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM23" s="16"/>
-      <c r="AN23" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="AO23" s="16"/>
-      <c r="AP23" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="AQ23" s="16"/>
-      <c r="AR23" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="AS23" s="16"/>
-      <c r="AT23" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="AU23" s="16"/>
-      <c r="AV23" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="AW23" s="16"/>
-      <c r="AX23" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="AY23" s="16"/>
-      <c r="AZ23" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="BA23" s="16"/>
-      <c r="BB23" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="BC23" s="16"/>
-      <c r="BD23" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="BE23" s="16"/>
-      <c r="BF23" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="BG23" s="16"/>
-      <c r="BH23" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="BI23" s="16"/>
-      <c r="BJ23" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="BK23" s="16"/>
-      <c r="BL23" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="BM23" s="16"/>
-      <c r="BN23" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="BO23" s="16"/>
-      <c r="BP23" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="BQ23" s="16"/>
-      <c r="BR23" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="BS23" s="16"/>
+      <c r="B23" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="U23" s="17"/>
+      <c r="V23" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="W23" s="17"/>
+      <c r="X23" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y23" s="17"/>
+      <c r="Z23" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA23" s="17"/>
+      <c r="AB23" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC23" s="17"/>
+      <c r="AD23" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE23" s="17"/>
+      <c r="AF23" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG23" s="17"/>
+      <c r="AH23" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI23" s="17"/>
+      <c r="AJ23" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK23" s="17"/>
+      <c r="AL23" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM23" s="17"/>
+      <c r="AN23" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO23" s="17"/>
+      <c r="AP23" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ23" s="17"/>
+      <c r="AR23" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS23" s="17"/>
+      <c r="AT23" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU23" s="17"/>
+      <c r="AV23" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW23" s="17"/>
+      <c r="AX23" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AY23" s="17"/>
+      <c r="AZ23" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA23" s="17"/>
+      <c r="BB23" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC23" s="17"/>
+      <c r="BD23" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE23" s="17"/>
+      <c r="BF23" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG23" s="17"/>
+      <c r="BH23" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="BI23" s="17"/>
+      <c r="BJ23" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="BK23" s="17"/>
+      <c r="BL23" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM23" s="17"/>
+      <c r="BN23" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="BO23" s="17"/>
+      <c r="BP23" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="BQ23" s="17"/>
+      <c r="BR23" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="BS23" s="17"/>
     </row>
     <row r="24" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="17"/>
-      <c r="T24" s="17"/>
-      <c r="U24" s="17"/>
-      <c r="V24" s="17"/>
-      <c r="W24" s="17"/>
-      <c r="X24" s="17"/>
-      <c r="Y24" s="17"/>
-      <c r="Z24" s="17"/>
-      <c r="AA24" s="17"/>
-      <c r="AB24" s="17"/>
-      <c r="AC24" s="17"/>
-      <c r="AD24" s="17"/>
-      <c r="AE24" s="17"/>
-      <c r="AF24" s="17"/>
-      <c r="AG24" s="17"/>
-      <c r="AH24" s="17"/>
-      <c r="AI24" s="17"/>
-      <c r="AJ24" s="17"/>
-      <c r="AK24" s="17"/>
-      <c r="AL24" s="17"/>
-      <c r="AM24" s="17"/>
-      <c r="AN24" s="17"/>
-      <c r="AO24" s="17"/>
-      <c r="AP24" s="17"/>
-      <c r="AQ24" s="17"/>
-      <c r="AR24" s="17"/>
-      <c r="AS24" s="17"/>
-      <c r="AT24" s="17"/>
-      <c r="AU24" s="17"/>
-      <c r="AV24" s="17"/>
-      <c r="AW24" s="17"/>
-      <c r="AX24" s="17"/>
-      <c r="AY24" s="17"/>
-      <c r="AZ24" s="17"/>
-      <c r="BA24" s="17"/>
-      <c r="BB24" s="17"/>
-      <c r="BC24" s="17"/>
-      <c r="BD24" s="17"/>
-      <c r="BE24" s="17"/>
-      <c r="BF24" s="17"/>
-      <c r="BG24" s="17"/>
-      <c r="BH24" s="17"/>
-      <c r="BI24" s="17"/>
-      <c r="BJ24" s="17"/>
-      <c r="BK24" s="17"/>
-      <c r="BL24" s="17"/>
-      <c r="BM24" s="17"/>
-      <c r="BN24" s="17"/>
-      <c r="BO24" s="17"/>
-      <c r="BP24" s="17"/>
-      <c r="BQ24" s="17"/>
-      <c r="BR24" s="17"/>
-      <c r="BS24" s="17"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="15"/>
+      <c r="X24" s="15"/>
+      <c r="Y24" s="15"/>
+      <c r="Z24" s="15"/>
+      <c r="AA24" s="15"/>
+      <c r="AB24" s="15"/>
+      <c r="AC24" s="15"/>
+      <c r="AD24" s="15"/>
+      <c r="AE24" s="15"/>
+      <c r="AF24" s="15"/>
+      <c r="AG24" s="15"/>
+      <c r="AH24" s="15"/>
+      <c r="AI24" s="15"/>
+      <c r="AJ24" s="15"/>
+      <c r="AK24" s="15"/>
+      <c r="AL24" s="15"/>
+      <c r="AM24" s="15"/>
+      <c r="AN24" s="15"/>
+      <c r="AO24" s="15"/>
+      <c r="AP24" s="15"/>
+      <c r="AQ24" s="15"/>
+      <c r="AR24" s="15"/>
+      <c r="AS24" s="15"/>
+      <c r="AT24" s="15"/>
+      <c r="AU24" s="15"/>
+      <c r="AV24" s="15"/>
+      <c r="AW24" s="15"/>
+      <c r="AX24" s="15"/>
+      <c r="AY24" s="15"/>
+      <c r="AZ24" s="15"/>
+      <c r="BA24" s="15"/>
+      <c r="BB24" s="15"/>
+      <c r="BC24" s="15"/>
+      <c r="BD24" s="15"/>
+      <c r="BE24" s="15"/>
+      <c r="BF24" s="15"/>
+      <c r="BG24" s="15"/>
+      <c r="BH24" s="15"/>
+      <c r="BI24" s="15"/>
+      <c r="BJ24" s="15"/>
+      <c r="BK24" s="15"/>
+      <c r="BL24" s="15"/>
+      <c r="BM24" s="15"/>
+      <c r="BN24" s="15"/>
+      <c r="BO24" s="15"/>
+      <c r="BP24" s="15"/>
+      <c r="BQ24" s="15"/>
+      <c r="BR24" s="15"/>
+      <c r="BS24" s="15"/>
     </row>
     <row r="25" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17" t="s">
+      <c r="G25" s="15"/>
+      <c r="H25" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17" t="s">
+      <c r="I25" s="15"/>
+      <c r="J25" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17" t="s">
+      <c r="M25" s="15"/>
+      <c r="N25" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17" t="s">
+      <c r="O25" s="15"/>
+      <c r="P25" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="17" t="s">
+      <c r="S25" s="15"/>
+      <c r="T25" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="S25" s="17"/>
-      <c r="T25" s="17" t="s">
+      <c r="U25" s="15"/>
+      <c r="V25" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="W25" s="15"/>
+      <c r="X25" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y25" s="15"/>
+      <c r="Z25" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="U25" s="17"/>
-      <c r="V25" s="17" t="s">
+      <c r="AA25" s="15"/>
+      <c r="AB25" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="W25" s="17"/>
-      <c r="X25" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y25" s="17"/>
-      <c r="Z25" s="17" t="s">
+      <c r="AC25" s="15"/>
+      <c r="AD25" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AA25" s="17"/>
-      <c r="AB25" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC25" s="17"/>
-      <c r="AD25" s="17" t="s">
+      <c r="AE25" s="15"/>
+      <c r="AF25" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AE25" s="17"/>
-      <c r="AF25" s="17" t="s">
+      <c r="AG25" s="15"/>
+      <c r="AH25" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI25" s="15"/>
+      <c r="AJ25" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="AG25" s="17"/>
-      <c r="AH25" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI25" s="17"/>
-      <c r="AJ25" s="17" t="s">
+      <c r="AK25" s="15"/>
+      <c r="AL25" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AK25" s="17"/>
-      <c r="AL25" s="17" t="s">
+      <c r="AM25" s="15"/>
+      <c r="AN25" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO25" s="15"/>
+      <c r="AP25" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ25" s="15"/>
+      <c r="AR25" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="AM25" s="17"/>
-      <c r="AN25" s="17" t="s">
+      <c r="AS25" s="15"/>
+      <c r="AT25" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="AO25" s="17"/>
-      <c r="AP25" s="17" t="s">
+      <c r="AU25" s="15"/>
+      <c r="AV25" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="AQ25" s="17"/>
-      <c r="AR25" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="AS25" s="17"/>
-      <c r="AT25" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="AU25" s="17"/>
-      <c r="AV25" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="AW25" s="17"/>
-      <c r="AX25" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="AY25" s="17"/>
-      <c r="AZ25" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="BA25" s="17"/>
-      <c r="BB25" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="BC25" s="17"/>
-      <c r="BD25" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="BE25" s="17"/>
-      <c r="BF25" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="BG25" s="17"/>
-      <c r="BH25" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="BI25" s="17"/>
-      <c r="BJ25" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="BK25" s="17"/>
-      <c r="BL25" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="BM25" s="17"/>
-      <c r="BN25" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="BO25" s="17"/>
-      <c r="BP25" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="BQ25" s="17"/>
-      <c r="BR25" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="BS25" s="17"/>
+      <c r="AW25" s="15"/>
+      <c r="AX25" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY25" s="15"/>
+      <c r="AZ25" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="BA25" s="15"/>
+      <c r="BB25" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="BC25" s="15"/>
+      <c r="BD25" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="BE25" s="15"/>
+      <c r="BF25" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="BG25" s="15"/>
+      <c r="BH25" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="BI25" s="15"/>
+      <c r="BJ25" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="BK25" s="15"/>
+      <c r="BL25" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="BM25" s="15"/>
+      <c r="BN25" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="BO25" s="15"/>
+      <c r="BP25" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="BQ25" s="15"/>
+      <c r="BR25" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="BS25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="455">
-    <mergeCell ref="BH25:BI25"/>
-    <mergeCell ref="BJ25:BK25"/>
-    <mergeCell ref="BL25:BM25"/>
-    <mergeCell ref="BN25:BO25"/>
-    <mergeCell ref="BP25:BQ25"/>
-    <mergeCell ref="BP19:BQ19"/>
-    <mergeCell ref="BJ20:BK20"/>
-    <mergeCell ref="BL20:BM20"/>
-    <mergeCell ref="BN20:BO20"/>
-    <mergeCell ref="BP20:BQ20"/>
-    <mergeCell ref="BN22:BO22"/>
-    <mergeCell ref="BP22:BQ22"/>
-    <mergeCell ref="BJ19:BK19"/>
-    <mergeCell ref="BL19:BM19"/>
-    <mergeCell ref="BN19:BO19"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="BF13:BG13"/>
+    <mergeCell ref="BH13:BI13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="AT13:AU13"/>
+    <mergeCell ref="AV13:AW13"/>
+    <mergeCell ref="AX13:AY13"/>
+    <mergeCell ref="AZ13:BA13"/>
+    <mergeCell ref="BB13:BC13"/>
+    <mergeCell ref="BD13:BE13"/>
+    <mergeCell ref="AD13:AE13"/>
+    <mergeCell ref="AF13:AG13"/>
+    <mergeCell ref="AH13:AI13"/>
+    <mergeCell ref="AJ13:AK13"/>
+    <mergeCell ref="AL13:AM13"/>
+    <mergeCell ref="AN13:AO13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="AR14:AS14"/>
+    <mergeCell ref="AT14:AU14"/>
+    <mergeCell ref="AF14:AG14"/>
+    <mergeCell ref="AH14:AI14"/>
+    <mergeCell ref="AJ14:AK14"/>
+    <mergeCell ref="AL14:AM14"/>
+    <mergeCell ref="AN14:AO14"/>
+    <mergeCell ref="AP14:AQ14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="AB15:AC15"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="BF14:BG14"/>
+    <mergeCell ref="BH14:BI14"/>
+    <mergeCell ref="AV14:AW14"/>
+    <mergeCell ref="AX14:AY14"/>
+    <mergeCell ref="AZ14:BA14"/>
+    <mergeCell ref="BB14:BC14"/>
+    <mergeCell ref="AR13:AS13"/>
+    <mergeCell ref="AP13:AQ13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="AB13:AC13"/>
+    <mergeCell ref="BD14:BE14"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="AB14:AC14"/>
+    <mergeCell ref="AD14:AE14"/>
+    <mergeCell ref="BB15:BC15"/>
+    <mergeCell ref="BD15:BE15"/>
+    <mergeCell ref="AX16:AY16"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="AL15:AM15"/>
+    <mergeCell ref="AN15:AO15"/>
+    <mergeCell ref="AN16:AO16"/>
+    <mergeCell ref="AP16:AQ16"/>
+    <mergeCell ref="AR16:AS16"/>
+    <mergeCell ref="AT16:AU16"/>
+    <mergeCell ref="AB16:AC16"/>
+    <mergeCell ref="AD16:AE16"/>
+    <mergeCell ref="AF16:AG16"/>
+    <mergeCell ref="AH16:AI16"/>
+    <mergeCell ref="AJ16:AK16"/>
+    <mergeCell ref="AL16:AM16"/>
+    <mergeCell ref="BF15:BG15"/>
+    <mergeCell ref="BH15:BI15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="AP15:AQ15"/>
+    <mergeCell ref="AR15:AS15"/>
+    <mergeCell ref="AT15:AU15"/>
+    <mergeCell ref="AV15:AW15"/>
+    <mergeCell ref="AX15:AY15"/>
+    <mergeCell ref="AZ15:BA15"/>
+    <mergeCell ref="AD15:AE15"/>
+    <mergeCell ref="AF15:AG15"/>
+    <mergeCell ref="AH15:AI15"/>
+    <mergeCell ref="AJ15:AK15"/>
+    <mergeCell ref="AZ16:BA16"/>
+    <mergeCell ref="BB16:BC16"/>
+    <mergeCell ref="BD16:BE16"/>
+    <mergeCell ref="BF16:BG16"/>
+    <mergeCell ref="BH16:BI16"/>
+    <mergeCell ref="AV16:AW16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="AB17:AC17"/>
+    <mergeCell ref="AD17:AE17"/>
+    <mergeCell ref="AF17:AG17"/>
+    <mergeCell ref="AH17:AI17"/>
+    <mergeCell ref="AJ17:AK17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="Z16:AA16"/>
+    <mergeCell ref="AX17:AY17"/>
+    <mergeCell ref="AZ17:BA17"/>
+    <mergeCell ref="BB17:BC17"/>
+    <mergeCell ref="BD17:BE17"/>
+    <mergeCell ref="BF17:BG17"/>
+    <mergeCell ref="BH17:BI17"/>
+    <mergeCell ref="AL17:AM17"/>
+    <mergeCell ref="AN17:AO17"/>
+    <mergeCell ref="AP17:AQ17"/>
+    <mergeCell ref="AR17:AS17"/>
+    <mergeCell ref="AT17:AU17"/>
+    <mergeCell ref="AV17:AW17"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="BH18:BI18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="BB18:BC18"/>
+    <mergeCell ref="BD18:BE18"/>
+    <mergeCell ref="BF18:BG18"/>
+    <mergeCell ref="AV18:AW18"/>
+    <mergeCell ref="AX18:AY18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="AN18:AO18"/>
+    <mergeCell ref="AP18:AQ18"/>
+    <mergeCell ref="AR18:AS18"/>
+    <mergeCell ref="AT18:AU18"/>
+    <mergeCell ref="AB18:AC18"/>
+    <mergeCell ref="AD18:AE18"/>
+    <mergeCell ref="AF18:AG18"/>
+    <mergeCell ref="AH18:AI18"/>
+    <mergeCell ref="AJ18:AK18"/>
+    <mergeCell ref="AL18:AM18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="AB19:AC19"/>
+    <mergeCell ref="AD19:AE19"/>
+    <mergeCell ref="AF19:AG19"/>
+    <mergeCell ref="AH19:AI19"/>
+    <mergeCell ref="AJ19:AK19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="X19:Y19"/>
+    <mergeCell ref="AX19:AY19"/>
+    <mergeCell ref="AZ19:BA19"/>
+    <mergeCell ref="BB19:BC19"/>
+    <mergeCell ref="BD19:BE19"/>
+    <mergeCell ref="BF19:BG19"/>
+    <mergeCell ref="BH19:BI19"/>
+    <mergeCell ref="AL19:AM19"/>
+    <mergeCell ref="AN19:AO19"/>
+    <mergeCell ref="AP19:AQ19"/>
+    <mergeCell ref="AR19:AS19"/>
+    <mergeCell ref="AT19:AU19"/>
+    <mergeCell ref="AV19:AW19"/>
+    <mergeCell ref="AV20:AW20"/>
+    <mergeCell ref="AX20:AY20"/>
+    <mergeCell ref="AB20:AC20"/>
+    <mergeCell ref="AD20:AE20"/>
+    <mergeCell ref="AF20:AG20"/>
+    <mergeCell ref="AH20:AI20"/>
+    <mergeCell ref="AJ20:AK20"/>
+    <mergeCell ref="AL20:AM20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="X20:Y20"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="AN20:AO20"/>
+    <mergeCell ref="AP20:AQ20"/>
+    <mergeCell ref="AR20:AS20"/>
+    <mergeCell ref="AT20:AU20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="AB21:AC21"/>
+    <mergeCell ref="AD21:AE21"/>
+    <mergeCell ref="AF21:AG21"/>
+    <mergeCell ref="AH21:AI21"/>
+    <mergeCell ref="AJ21:AK21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="AX21:AY21"/>
+    <mergeCell ref="AZ21:BA21"/>
+    <mergeCell ref="BB21:BC21"/>
+    <mergeCell ref="BD21:BE21"/>
+    <mergeCell ref="BF21:BG21"/>
+    <mergeCell ref="BH21:BI21"/>
+    <mergeCell ref="AL21:AM21"/>
+    <mergeCell ref="AN21:AO21"/>
+    <mergeCell ref="AP21:AQ21"/>
+    <mergeCell ref="AR21:AS21"/>
+    <mergeCell ref="AT21:AU21"/>
+    <mergeCell ref="AV21:AW21"/>
+    <mergeCell ref="AV22:AW22"/>
+    <mergeCell ref="AX22:AY22"/>
+    <mergeCell ref="AB22:AC22"/>
+    <mergeCell ref="AD22:AE22"/>
+    <mergeCell ref="AF22:AG22"/>
+    <mergeCell ref="AH22:AI22"/>
+    <mergeCell ref="AJ22:AK22"/>
+    <mergeCell ref="AL22:AM22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="X22:Y22"/>
+    <mergeCell ref="Z22:AA22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="AN22:AO22"/>
+    <mergeCell ref="AP22:AQ22"/>
+    <mergeCell ref="AR22:AS22"/>
+    <mergeCell ref="AT22:AU22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="Z23:AA23"/>
+    <mergeCell ref="AB23:AC23"/>
+    <mergeCell ref="AD23:AE23"/>
+    <mergeCell ref="AF23:AG23"/>
+    <mergeCell ref="AH23:AI23"/>
+    <mergeCell ref="AJ23:AK23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="AX23:AY23"/>
+    <mergeCell ref="AZ23:BA23"/>
+    <mergeCell ref="BB23:BC23"/>
+    <mergeCell ref="BD23:BE23"/>
+    <mergeCell ref="BF23:BG23"/>
+    <mergeCell ref="BH23:BI23"/>
+    <mergeCell ref="AL23:AM23"/>
+    <mergeCell ref="AN23:AO23"/>
+    <mergeCell ref="AP23:AQ23"/>
+    <mergeCell ref="AR23:AS23"/>
+    <mergeCell ref="AT23:AU23"/>
+    <mergeCell ref="AV23:AW23"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="Z24:AA24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="BF22:BG22"/>
+    <mergeCell ref="BH22:BI22"/>
+    <mergeCell ref="AZ20:BA20"/>
+    <mergeCell ref="BB20:BC20"/>
+    <mergeCell ref="BD20:BE20"/>
+    <mergeCell ref="BF20:BG20"/>
+    <mergeCell ref="BH20:BI20"/>
+    <mergeCell ref="AZ18:BA18"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="AN24:AO24"/>
+    <mergeCell ref="AP24:AQ24"/>
+    <mergeCell ref="AR24:AS24"/>
+    <mergeCell ref="AT24:AU24"/>
+    <mergeCell ref="AB24:AC24"/>
+    <mergeCell ref="AD24:AE24"/>
+    <mergeCell ref="AF24:AG24"/>
+    <mergeCell ref="AH24:AI24"/>
+    <mergeCell ref="AJ24:AK24"/>
+    <mergeCell ref="AL24:AM24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="BJ15:BK15"/>
+    <mergeCell ref="BL15:BM15"/>
+    <mergeCell ref="BN15:BO15"/>
+    <mergeCell ref="BP15:BQ15"/>
+    <mergeCell ref="BJ16:BK16"/>
+    <mergeCell ref="BL16:BM16"/>
+    <mergeCell ref="BN16:BO16"/>
+    <mergeCell ref="BP16:BQ16"/>
+    <mergeCell ref="BJ13:BK13"/>
+    <mergeCell ref="BL13:BM13"/>
+    <mergeCell ref="BN13:BO13"/>
+    <mergeCell ref="BP13:BQ13"/>
+    <mergeCell ref="BJ14:BK14"/>
+    <mergeCell ref="BL14:BM14"/>
+    <mergeCell ref="BN14:BO14"/>
+    <mergeCell ref="BP14:BQ14"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="BJ23:BK23"/>
+    <mergeCell ref="BL23:BM23"/>
+    <mergeCell ref="BN23:BO23"/>
+    <mergeCell ref="BJ24:BK24"/>
+    <mergeCell ref="BL24:BM24"/>
+    <mergeCell ref="BN24:BO24"/>
+    <mergeCell ref="AV24:AW24"/>
+    <mergeCell ref="AX24:AY24"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="AJ25:AK25"/>
+    <mergeCell ref="AL25:AM25"/>
+    <mergeCell ref="AN25:AO25"/>
+    <mergeCell ref="AP25:AQ25"/>
+    <mergeCell ref="AR25:AS25"/>
+    <mergeCell ref="AT25:AU25"/>
+    <mergeCell ref="X25:Y25"/>
+    <mergeCell ref="BR13:BS13"/>
+    <mergeCell ref="BR14:BS14"/>
+    <mergeCell ref="BR15:BS15"/>
+    <mergeCell ref="BR16:BS16"/>
+    <mergeCell ref="BR17:BS17"/>
+    <mergeCell ref="AV25:AW25"/>
+    <mergeCell ref="AX25:AY25"/>
+    <mergeCell ref="AZ25:BA25"/>
+    <mergeCell ref="BB25:BC25"/>
+    <mergeCell ref="BD25:BE25"/>
+    <mergeCell ref="BF25:BG25"/>
+    <mergeCell ref="BP23:BQ23"/>
+    <mergeCell ref="BP24:BQ24"/>
+    <mergeCell ref="BJ21:BK21"/>
+    <mergeCell ref="BL21:BM21"/>
+    <mergeCell ref="BN21:BO21"/>
+    <mergeCell ref="BP21:BQ21"/>
+    <mergeCell ref="BJ22:BK22"/>
+    <mergeCell ref="BL22:BM22"/>
+    <mergeCell ref="BJ17:BK17"/>
+    <mergeCell ref="BL17:BM17"/>
+    <mergeCell ref="BN17:BO17"/>
+    <mergeCell ref="BP17:BQ17"/>
+    <mergeCell ref="BJ18:BK18"/>
     <mergeCell ref="BR24:BS24"/>
     <mergeCell ref="BR25:BS25"/>
     <mergeCell ref="BR18:BS18"/>
@@ -18283,422 +18684,21 @@
     <mergeCell ref="AZ22:BA22"/>
     <mergeCell ref="BB22:BC22"/>
     <mergeCell ref="BD22:BE22"/>
-    <mergeCell ref="BR13:BS13"/>
-    <mergeCell ref="BR14:BS14"/>
-    <mergeCell ref="BR15:BS15"/>
-    <mergeCell ref="BR16:BS16"/>
-    <mergeCell ref="BR17:BS17"/>
-    <mergeCell ref="AV25:AW25"/>
-    <mergeCell ref="AX25:AY25"/>
-    <mergeCell ref="AZ25:BA25"/>
-    <mergeCell ref="BB25:BC25"/>
-    <mergeCell ref="BD25:BE25"/>
-    <mergeCell ref="BF25:BG25"/>
-    <mergeCell ref="BP23:BQ23"/>
-    <mergeCell ref="BP24:BQ24"/>
-    <mergeCell ref="BJ21:BK21"/>
-    <mergeCell ref="BL21:BM21"/>
-    <mergeCell ref="BN21:BO21"/>
-    <mergeCell ref="BP21:BQ21"/>
-    <mergeCell ref="BJ22:BK22"/>
-    <mergeCell ref="BL22:BM22"/>
-    <mergeCell ref="BJ17:BK17"/>
-    <mergeCell ref="BL17:BM17"/>
-    <mergeCell ref="BN17:BO17"/>
-    <mergeCell ref="BP17:BQ17"/>
-    <mergeCell ref="BJ18:BK18"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="T25:U25"/>
-    <mergeCell ref="V25:W25"/>
-    <mergeCell ref="BJ23:BK23"/>
-    <mergeCell ref="BL23:BM23"/>
-    <mergeCell ref="BN23:BO23"/>
-    <mergeCell ref="BJ24:BK24"/>
-    <mergeCell ref="BL24:BM24"/>
-    <mergeCell ref="BN24:BO24"/>
-    <mergeCell ref="AV24:AW24"/>
-    <mergeCell ref="AX24:AY24"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="AJ25:AK25"/>
-    <mergeCell ref="AL25:AM25"/>
-    <mergeCell ref="AN25:AO25"/>
-    <mergeCell ref="AP25:AQ25"/>
-    <mergeCell ref="AR25:AS25"/>
-    <mergeCell ref="AT25:AU25"/>
-    <mergeCell ref="X25:Y25"/>
-    <mergeCell ref="BJ15:BK15"/>
-    <mergeCell ref="BL15:BM15"/>
-    <mergeCell ref="BN15:BO15"/>
-    <mergeCell ref="BP15:BQ15"/>
-    <mergeCell ref="BJ16:BK16"/>
-    <mergeCell ref="BL16:BM16"/>
-    <mergeCell ref="BN16:BO16"/>
-    <mergeCell ref="BP16:BQ16"/>
-    <mergeCell ref="BJ13:BK13"/>
-    <mergeCell ref="BL13:BM13"/>
-    <mergeCell ref="BN13:BO13"/>
-    <mergeCell ref="BP13:BQ13"/>
-    <mergeCell ref="BJ14:BK14"/>
-    <mergeCell ref="BL14:BM14"/>
-    <mergeCell ref="BN14:BO14"/>
-    <mergeCell ref="BP14:BQ14"/>
-    <mergeCell ref="BF22:BG22"/>
-    <mergeCell ref="BH22:BI22"/>
-    <mergeCell ref="AZ20:BA20"/>
-    <mergeCell ref="BB20:BC20"/>
-    <mergeCell ref="BD20:BE20"/>
-    <mergeCell ref="BF20:BG20"/>
-    <mergeCell ref="BH20:BI20"/>
-    <mergeCell ref="AZ18:BA18"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="AN24:AO24"/>
-    <mergeCell ref="AP24:AQ24"/>
-    <mergeCell ref="AR24:AS24"/>
-    <mergeCell ref="AT24:AU24"/>
-    <mergeCell ref="AB24:AC24"/>
-    <mergeCell ref="AD24:AE24"/>
-    <mergeCell ref="AF24:AG24"/>
-    <mergeCell ref="AH24:AI24"/>
-    <mergeCell ref="AJ24:AK24"/>
-    <mergeCell ref="AL24:AM24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="V24:W24"/>
-    <mergeCell ref="X24:Y24"/>
-    <mergeCell ref="Z24:AA24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="AX23:AY23"/>
-    <mergeCell ref="AZ23:BA23"/>
-    <mergeCell ref="BB23:BC23"/>
-    <mergeCell ref="BD23:BE23"/>
-    <mergeCell ref="BF23:BG23"/>
-    <mergeCell ref="BH23:BI23"/>
-    <mergeCell ref="AL23:AM23"/>
-    <mergeCell ref="AN23:AO23"/>
-    <mergeCell ref="AP23:AQ23"/>
-    <mergeCell ref="AR23:AS23"/>
-    <mergeCell ref="AT23:AU23"/>
-    <mergeCell ref="AV23:AW23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="AN22:AO22"/>
-    <mergeCell ref="AP22:AQ22"/>
-    <mergeCell ref="AR22:AS22"/>
-    <mergeCell ref="AT22:AU22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="Z23:AA23"/>
-    <mergeCell ref="AB23:AC23"/>
-    <mergeCell ref="AD23:AE23"/>
-    <mergeCell ref="AF23:AG23"/>
-    <mergeCell ref="AH23:AI23"/>
-    <mergeCell ref="AJ23:AK23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="AV22:AW22"/>
-    <mergeCell ref="AX22:AY22"/>
-    <mergeCell ref="AB22:AC22"/>
-    <mergeCell ref="AD22:AE22"/>
-    <mergeCell ref="AF22:AG22"/>
-    <mergeCell ref="AH22:AI22"/>
-    <mergeCell ref="AJ22:AK22"/>
-    <mergeCell ref="AL22:AM22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="X22:Y22"/>
-    <mergeCell ref="Z22:AA22"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="X21:Y21"/>
-    <mergeCell ref="AX21:AY21"/>
-    <mergeCell ref="AZ21:BA21"/>
-    <mergeCell ref="BB21:BC21"/>
-    <mergeCell ref="BD21:BE21"/>
-    <mergeCell ref="BF21:BG21"/>
-    <mergeCell ref="BH21:BI21"/>
-    <mergeCell ref="AL21:AM21"/>
-    <mergeCell ref="AN21:AO21"/>
-    <mergeCell ref="AP21:AQ21"/>
-    <mergeCell ref="AR21:AS21"/>
-    <mergeCell ref="AT21:AU21"/>
-    <mergeCell ref="AV21:AW21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="AN20:AO20"/>
-    <mergeCell ref="AP20:AQ20"/>
-    <mergeCell ref="AR20:AS20"/>
-    <mergeCell ref="AT20:AU20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="Z21:AA21"/>
-    <mergeCell ref="AB21:AC21"/>
-    <mergeCell ref="AD21:AE21"/>
-    <mergeCell ref="AF21:AG21"/>
-    <mergeCell ref="AH21:AI21"/>
-    <mergeCell ref="AJ21:AK21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="AV20:AW20"/>
-    <mergeCell ref="AX20:AY20"/>
-    <mergeCell ref="AB20:AC20"/>
-    <mergeCell ref="AD20:AE20"/>
-    <mergeCell ref="AF20:AG20"/>
-    <mergeCell ref="AH20:AI20"/>
-    <mergeCell ref="AJ20:AK20"/>
-    <mergeCell ref="AL20:AM20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="X20:Y20"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="X19:Y19"/>
-    <mergeCell ref="AX19:AY19"/>
-    <mergeCell ref="AZ19:BA19"/>
-    <mergeCell ref="BB19:BC19"/>
-    <mergeCell ref="BD19:BE19"/>
-    <mergeCell ref="BF19:BG19"/>
-    <mergeCell ref="BH19:BI19"/>
-    <mergeCell ref="AL19:AM19"/>
-    <mergeCell ref="AN19:AO19"/>
-    <mergeCell ref="AP19:AQ19"/>
-    <mergeCell ref="AR19:AS19"/>
-    <mergeCell ref="AT19:AU19"/>
-    <mergeCell ref="AV19:AW19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="AN18:AO18"/>
-    <mergeCell ref="AP18:AQ18"/>
-    <mergeCell ref="AR18:AS18"/>
-    <mergeCell ref="AT18:AU18"/>
-    <mergeCell ref="AB18:AC18"/>
-    <mergeCell ref="AD18:AE18"/>
-    <mergeCell ref="AF18:AG18"/>
-    <mergeCell ref="AH18:AI18"/>
-    <mergeCell ref="AJ18:AK18"/>
-    <mergeCell ref="AL18:AM18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="AB19:AC19"/>
-    <mergeCell ref="AD19:AE19"/>
-    <mergeCell ref="AF19:AG19"/>
-    <mergeCell ref="AH19:AI19"/>
-    <mergeCell ref="AJ19:AK19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="X18:Y18"/>
-    <mergeCell ref="Z18:AA18"/>
-    <mergeCell ref="BH18:BI18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="BB18:BC18"/>
-    <mergeCell ref="BD18:BE18"/>
-    <mergeCell ref="BF18:BG18"/>
-    <mergeCell ref="AV18:AW18"/>
-    <mergeCell ref="AX18:AY18"/>
-    <mergeCell ref="AX17:AY17"/>
-    <mergeCell ref="AZ17:BA17"/>
-    <mergeCell ref="BB17:BC17"/>
-    <mergeCell ref="BD17:BE17"/>
-    <mergeCell ref="BF17:BG17"/>
-    <mergeCell ref="BH17:BI17"/>
-    <mergeCell ref="AL17:AM17"/>
-    <mergeCell ref="AN17:AO17"/>
-    <mergeCell ref="AP17:AQ17"/>
-    <mergeCell ref="AR17:AS17"/>
-    <mergeCell ref="AT17:AU17"/>
-    <mergeCell ref="AV17:AW17"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="Z17:AA17"/>
-    <mergeCell ref="AB17:AC17"/>
-    <mergeCell ref="AD17:AE17"/>
-    <mergeCell ref="AF17:AG17"/>
-    <mergeCell ref="AH17:AI17"/>
-    <mergeCell ref="AJ17:AK17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="X16:Y16"/>
-    <mergeCell ref="Z16:AA16"/>
-    <mergeCell ref="BF15:BG15"/>
-    <mergeCell ref="BH15:BI15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="AP15:AQ15"/>
-    <mergeCell ref="AR15:AS15"/>
-    <mergeCell ref="AT15:AU15"/>
-    <mergeCell ref="AV15:AW15"/>
-    <mergeCell ref="AX15:AY15"/>
-    <mergeCell ref="AZ15:BA15"/>
-    <mergeCell ref="AD15:AE15"/>
-    <mergeCell ref="AF15:AG15"/>
-    <mergeCell ref="AH15:AI15"/>
-    <mergeCell ref="AJ15:AK15"/>
-    <mergeCell ref="AZ16:BA16"/>
-    <mergeCell ref="BB16:BC16"/>
-    <mergeCell ref="BD16:BE16"/>
-    <mergeCell ref="BF16:BG16"/>
-    <mergeCell ref="BH16:BI16"/>
-    <mergeCell ref="AV16:AW16"/>
-    <mergeCell ref="BB15:BC15"/>
-    <mergeCell ref="BD15:BE15"/>
-    <mergeCell ref="AX16:AY16"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="AL15:AM15"/>
-    <mergeCell ref="AN15:AO15"/>
-    <mergeCell ref="AN16:AO16"/>
-    <mergeCell ref="AP16:AQ16"/>
-    <mergeCell ref="AR16:AS16"/>
-    <mergeCell ref="AT16:AU16"/>
-    <mergeCell ref="AB16:AC16"/>
-    <mergeCell ref="AD16:AE16"/>
-    <mergeCell ref="AF16:AG16"/>
-    <mergeCell ref="AH16:AI16"/>
-    <mergeCell ref="AJ16:AK16"/>
-    <mergeCell ref="AL16:AM16"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="BF14:BG14"/>
-    <mergeCell ref="BH14:BI14"/>
-    <mergeCell ref="AV14:AW14"/>
-    <mergeCell ref="AX14:AY14"/>
-    <mergeCell ref="AZ14:BA14"/>
-    <mergeCell ref="BB14:BC14"/>
-    <mergeCell ref="AR13:AS13"/>
-    <mergeCell ref="AP13:AQ13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="X13:Y13"/>
-    <mergeCell ref="Z13:AA13"/>
-    <mergeCell ref="AB13:AC13"/>
-    <mergeCell ref="BD14:BE14"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="AB14:AC14"/>
-    <mergeCell ref="AD14:AE14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="AR14:AS14"/>
-    <mergeCell ref="AT14:AU14"/>
-    <mergeCell ref="AF14:AG14"/>
-    <mergeCell ref="AH14:AI14"/>
-    <mergeCell ref="AJ14:AK14"/>
-    <mergeCell ref="AL14:AM14"/>
-    <mergeCell ref="AN14:AO14"/>
-    <mergeCell ref="AP14:AQ14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="Z15:AA15"/>
-    <mergeCell ref="AB15:AC15"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="BF13:BG13"/>
-    <mergeCell ref="BH13:BI13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="AT13:AU13"/>
-    <mergeCell ref="AV13:AW13"/>
-    <mergeCell ref="AX13:AY13"/>
-    <mergeCell ref="AZ13:BA13"/>
-    <mergeCell ref="BB13:BC13"/>
-    <mergeCell ref="BD13:BE13"/>
-    <mergeCell ref="AD13:AE13"/>
-    <mergeCell ref="AF13:AG13"/>
-    <mergeCell ref="AH13:AI13"/>
-    <mergeCell ref="AJ13:AK13"/>
-    <mergeCell ref="AL13:AM13"/>
-    <mergeCell ref="AN13:AO13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="BH25:BI25"/>
+    <mergeCell ref="BJ25:BK25"/>
+    <mergeCell ref="BL25:BM25"/>
+    <mergeCell ref="BN25:BO25"/>
+    <mergeCell ref="BP25:BQ25"/>
+    <mergeCell ref="BP19:BQ19"/>
+    <mergeCell ref="BJ20:BK20"/>
+    <mergeCell ref="BL20:BM20"/>
+    <mergeCell ref="BN20:BO20"/>
+    <mergeCell ref="BP20:BQ20"/>
+    <mergeCell ref="BN22:BO22"/>
+    <mergeCell ref="BP22:BQ22"/>
+    <mergeCell ref="BJ19:BK19"/>
+    <mergeCell ref="BL19:BM19"/>
+    <mergeCell ref="BN19:BO19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
